--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Cambio1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,11 +62,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,36 +356,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Cambio1</t>
+  </si>
+  <si>
+    <t>Cambio2</t>
   </si>
 </sst>
 </file>
@@ -66,6 +69,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -113,7 +119,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -148,7 +154,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,17 +363,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4"/>
+  <dimension ref="A4:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -381,7 +390,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -393,7 +402,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Cambio1</t>
   </si>
   <si>
     <t>Cambio2</t>
+  </si>
+  <si>
+    <t>Cambio3</t>
   </si>
 </sst>
 </file>
@@ -363,20 +366,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B4"/>
+  <dimension ref="A4:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Cambio1</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Cambio3</t>
+  </si>
+  <si>
+    <t>Cambio 4 RH</t>
   </si>
 </sst>
 </file>
@@ -122,7 +125,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -157,7 +160,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:C4"/>
+  <dimension ref="A4:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -384,6 +387,9 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -396,7 +402,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -408,7 +414,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Cambio1</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Cambio 4 RH</t>
+  </si>
+  <si>
+    <t>Cambio5</t>
   </si>
 </sst>
 </file>
@@ -125,7 +128,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -160,7 +163,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -369,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D4"/>
+  <dimension ref="A4:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -390,6 +393,9 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -402,7 +408,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -414,7 +420,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Cambio1</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Cambio 4 RH</t>
+  </si>
+  <si>
+    <t>Cambio 5 RH</t>
   </si>
 </sst>
 </file>
@@ -369,15 +372,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:D4"/>
+  <dimension ref="A4:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -390,6 +393,9 @@
       <c r="D4" t="s">
         <v>3</v>
       </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Cambio1</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Cambio5</t>
+  </si>
+  <si>
+    <t>Cambio 6 RH</t>
   </si>
 </sst>
 </file>
@@ -128,7 +131,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -163,7 +166,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -372,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F4"/>
+  <dimension ref="A4:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -395,6 +398,9 @@
       </c>
       <c r="F4" t="s">
         <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -408,7 +414,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -420,7 +426,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Cambio1</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Cambio5</t>
+  </si>
+  <si>
+    <t>Cambio 6 Lewis</t>
   </si>
 </sst>
 </file>
@@ -372,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:F4"/>
+  <dimension ref="A4:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -395,6 +398,9 @@
       </c>
       <c r="F4" t="s">
         <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Cambio1</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Cambio 6 Lewis</t>
+  </si>
+  <si>
+    <t>Cambio8 RH</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,7 +169,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G4"/>
+  <dimension ref="A4:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -401,6 +404,9 @@
       </c>
       <c r="G4" t="s">
         <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -414,7 +420,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -426,7 +432,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Cambio1</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Cambio 6 Lewis</t>
+  </si>
+  <si>
+    <t>Cambio 7</t>
   </si>
 </sst>
 </file>
@@ -375,15 +378,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G4"/>
+  <dimension ref="A4:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -401,6 +404,9 @@
       </c>
       <c r="G4" t="s">
         <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Prueba.xlsx
+++ b/Prueba.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Cambio1</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Cambio 7</t>
+  </si>
+  <si>
+    <t>Cambio 8 RH2</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -169,7 +172,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,15 +381,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H4"/>
+  <dimension ref="A4:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -407,6 +410,9 @@
       </c>
       <c r="H4" t="s">
         <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -420,7 +426,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -432,7 +438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
